--- a/data/trans_camb/P23_9_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_9_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 9,14</t>
+          <t>-7,39; 20,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 5,41</t>
+          <t>-9,75; 16,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 3,8</t>
+          <t>-6,24; 25,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 5,72</t>
+          <t>-13,53; 5,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 4,65</t>
+          <t>-10,1; 13,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 3,6</t>
+          <t>-14,14; 6,53</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 8,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 11,29</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 11,91</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>110,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-36,97%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-44,66%</t>
+          <t>151,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,65%</t>
+          <t>-42,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,21%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,32%</t>
+          <t>-40,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32,89%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,16; 123,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-85,17; 138,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,44; 138,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,16; 121,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-81,59; 457,8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-78,96; 551,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-83,37; 610,04</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,77</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,3</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,21</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 28,49</t>
+          <t>-2,03; 49,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 27,17</t>
+          <t>-3,79; 43,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 17,2</t>
+          <t>-8,56; 7,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 28,19</t>
+          <t>0,51; 28,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 17,14</t>
+          <t>1,17; 27,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 20,58</t>
+          <t>-6,32; 16,27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 32,51</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 32,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 8,4</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>155,93%</t>
+          <t>312,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>143,5%</t>
+          <t>290,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>-9,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>177,58%</t>
+          <t>168,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>104,12%</t>
+          <t>156,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>156,22%</t>
+          <t>49,67%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>215,13%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>197,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18,77%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 353,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,76; 578,58</t>
+          <t>-11,26; 765,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 460,01</t>
+          <t>-1,41; 845,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 519,84</t>
+          <t>-62,39; 475,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19,73; 931,28</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 1059,18</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-65,55; 257,95</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,97</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-12,04</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,22</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,15; -0,78</t>
+          <t>-13,05; 18,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 13,74</t>
+          <t>-13,14; 17,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 11,87</t>
+          <t>-11,56; 18,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 18,54</t>
+          <t>-11,45; 12,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 2,23</t>
+          <t>-5,88; 17,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 11,89</t>
+          <t>-22,9; -2,03</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 9,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 13,38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-14,1; 3,04</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-46,19%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,53%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>-59,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-25,81%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,7; 0,39</t>
+          <t>-48,13; 135,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 89,01</t>
+          <t>-48,03; 142,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 101,84</t>
+          <t>-47,43; 142,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 146,36</t>
+          <t>-44,33; 86,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,65; 15,11</t>
+          <t>-24,34; 128,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 66,78</t>
+          <t>-84,21; -7,14</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-33,51; 65,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 84,53</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-57,72; 21,9</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,67</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-5,55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 22,57</t>
+          <t>2,58; 25,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 10,85</t>
+          <t>-4,07; 17,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 15,18</t>
+          <t>-4,66; 15,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 15,06</t>
+          <t>-8,13; 14,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 15,56</t>
+          <t>-7,79; 15,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 11,13</t>
+          <t>-14,87; 5,58</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 16,75</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 12,39</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 5,92</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>138,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>64,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>-28,52%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>53,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31,23%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-6,33%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,98; 243,36</t>
+          <t>7,85; 543,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 116,3</t>
+          <t>-36,18; 316,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 104,66</t>
+          <t>-39,77; 291,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 109,24</t>
+          <t>-34,03; 106,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,98; 120,87</t>
+          <t>-30,79; 122,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 84,73</t>
+          <t>-60,59; 55,7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 146,8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-18,49; 107,61</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-45,09; 53,19</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>-14,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,89</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 20,74</t>
+          <t>-6,17; 30,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 13,3</t>
+          <t>-15,69; 12,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 16,89</t>
+          <t>-27,3; -3,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 20,94</t>
+          <t>-3,72; 28,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 15,71</t>
+          <t>-6,52; 24,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 13,88</t>
+          <t>-10,5; 20,62</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 24,41</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 13,22</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-15,3; 3,6</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>-71,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>78,97%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>60,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-31,74%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 169,72</t>
+          <t>-26,32; 240,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 111,39</t>
+          <t>-55,86; 99,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 141,26</t>
+          <t>-94,6; -17,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 180,46</t>
+          <t>-23,83; 351,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 106,35</t>
+          <t>-37,63; 285,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 102,48</t>
+          <t>-50,12; 267,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 174,9</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,59; 97,04</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-66,52; 28,53</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>11,08</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 13,53</t>
+          <t>-13,83; 19,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 17,95</t>
+          <t>-12,48; 23,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 26,61</t>
+          <t>-15,48; 19,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 8,42</t>
+          <t>-12,4; 23,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 17,45</t>
+          <t>-17,24; 16,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 8,67</t>
+          <t>-8,21; 31,17</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-8,1; 17,0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 14,18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 21,02</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>64,44%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>44,68%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 103,59</t>
+          <t>-63,02; 294,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,89; 142,01</t>
+          <t>-57,56; 354,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 188,33</t>
+          <t>-75,8; 371,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,62; 59,6</t>
+          <t>-57,68; 327,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 111,27</t>
+          <t>-72,51; 194,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,8; 57,18</t>
+          <t>-42,97; 408,51</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-35,06; 163,47</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-49,5; 145,45</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-37,96; 189,73</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>6,19</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,39</t>
+          <t>2,23; 16,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 6,04</t>
+          <t>-2,01; 11,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,73</t>
+          <t>-5,97; 5,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,86</t>
+          <t>-1,19; 10,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,59</t>
+          <t>-0,86; 10,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,43</t>
+          <t>-6,43; 4,29</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 10,87</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 9,38</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 2,99</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>-7,46%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>43,64%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 61,83</t>
+          <t>12,87; 157,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 50,03</t>
+          <t>-15,65; 109,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,36; 65,55</t>
+          <t>-39,07; 49,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,66; 71,58</t>
+          <t>-7,63; 75,24</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 47,28</t>
+          <t>-4,46; 81,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 45,17</t>
+          <t>-36,22; 32,57</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 89,45</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 73,5</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-29,76; 24,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
